--- a/02_MasterWifoMannheim/99_Backup/Course146.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course146.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2B59D2BFD32051265F59281159FA607761E7F97E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB85E29-AFC6-414A-8304-B505B92E5226}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 615 Sales Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The module deals with the primary sales tasks of customers’ acquisition and retention as well as sales objectives and necessary sales instruments from an instrumental and strategic perspective. the foundations and objectives of sales management are discussed, as well as the concept of sales strategy and its core elements are introduced. Second, the key sales instruments which are essential for achieving sales objectives are discussed. Third, the fundamentals of sales channel design are presented, followed by the discussion of the management of external sales partners. The final chapter covers the fundamentals of managing the internal sales force.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students understand the foundations and objectives of sales management and can apply the key sales instruments necessary for the achievement of sales objectives. They are aware of the importance of efficient management of external sales partners and internal sales force. At the end of this module, students are able to apply the acquired knowledge about sales strategy, concepts, and key sales instruments in practice.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.): 60%, Group work (Cases): 40%</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Dr. h.c. mult. Christian Homburg</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>MKT 611</t>
-  </si>
-  <si>
-    <t>MKT 510</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 615 Sales Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The module deals with the primary sales tasks of customers’ acquisition and retention as well as sales objectives and necessary sales instruments from an instrumental and strategic perspective. the foundations and objectives of sales management are discussed, as well as the concept of sales strategy and its core elements are introduced. Second, the key sales instruments which are essential for achieving sales objectives are discussed. Third, the fundamentals of sales channel design are presented, followed by the discussion of the management of external sales partners. The final chapter covers the fundamentals of managing the internal sales force.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students understand the foundations and objectives of sales management and can apply the key sales instruments necessary for the achievement of sales objectives. They are aware of the importance of efficient management of external sales partners and internal sales force. At the end of this module, students are able to apply the acquired knowledge about sales strategy, concepts, and key sales instruments in practice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MKT 510</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MKT 611</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.): 60%, Group work (Cases): 40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Dr. h.c. mult. Christian Homburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
+        </is>
       </c>
     </row>
   </sheetData>
